--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,7 +7299,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 01:22:22.903550</t>
+    <t>2024-11-08 02:13:59.250810</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,7 +7299,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 02:13:59.250810</t>
+    <t>2024-11-08 09:00:11.865622</t>
   </si>
   <si>
     <t>version</t>
@@ -7311,7 +7311,7 @@
     <t>mode</t>
   </si>
   <si>
-    <t>local</t>
+    <t>online</t>
   </si>
   <si>
     <t>source</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,19 +7299,19 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-08 09:00:11.865622</t>
+    <t>2024-11-12 08:42:23.864110</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.3</t>
+    <t>2.0.4</t>
   </si>
   <si>
     <t>mode</t>
   </si>
   <si>
-    <t>online</t>
+    <t>local</t>
   </si>
   <si>
     <t>source</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-11-12 08:42:23.864110</t>
+    <t>2024-12-02 16:44:16.815432</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.4</t>
+    <t>2.0.5</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-02 16:44:16.815432</t>
+    <t>2024-12-10 17:55:23.786166</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.5</t>
+    <t>2.0.6</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,7 +7299,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 12:16:46.414220</t>
+    <t>2024-12-20 14:58:19.176380</t>
   </si>
   <si>
     <t>version</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7299,13 +7299,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2024-12-20 14:58:19.176380</t>
+    <t>2024-12-23 11:42:08.563998</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.7</t>
+    <t>2.0.8</t>
   </si>
   <si>
     <t>mode</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9385" uniqueCount="2445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9387" uniqueCount="2447">
   <si>
     <t>metadata-type</t>
   </si>
@@ -7332,7 +7332,7 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 13:20:07.045252</t>
+    <t>2025-02-14 14:05:37.719021</t>
   </si>
   <si>
     <t>version</t>
@@ -7341,10 +7341,16 @@
     <t>2.0.9</t>
   </si>
   <si>
-    <t>xsd-version</t>
+    <t>xdov-version</t>
   </si>
   <si>
     <t>9.1.0</t>
+  </si>
+  <si>
+    <t>schema-version</t>
+  </si>
+  <si>
+    <t>5.4.0</t>
   </si>
   <si>
     <t>mode</t>
@@ -40874,7 +40880,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40920,6 +40926,14 @@
         <v>2444</v>
       </c>
     </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>2445</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7332,13 +7332,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-14 14:05:37.719021</t>
+    <t>2025-02-24 16:59:59.133095</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.0.9</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>xdov-version</t>

--- a/data/bodem_template_full_oefen.xlsx
+++ b/data/bodem_template_full_oefen.xlsx
@@ -7332,13 +7332,13 @@
     <t>Date generated</t>
   </si>
   <si>
-    <t>2025-02-24 16:59:59.133095</t>
+    <t>2025-02-28 11:24:53.528201</t>
   </si>
   <si>
     <t>version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.1.1</t>
   </si>
   <si>
     <t>xdov-version</t>
